--- a/results/epsilon/nim/1k-test-games/Nim_OptimalEpsilon_Vs_Training.xlsx
+++ b/results/epsilon/nim/1k-test-games/Nim_OptimalEpsilon_Vs_Training.xlsx
@@ -168,7 +168,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -254,11 +253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242380800"/>
-        <c:axId val="242383104"/>
+        <c:axId val="202063872"/>
+        <c:axId val="202065792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242380800"/>
+        <c:axId val="202063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -285,19 +284,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242383104"/>
+        <c:crossAx val="202065792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242383104"/>
+        <c:axId val="202065792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,14 +318,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242380800"/>
+        <c:crossAx val="202063872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -358,54 +355,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Optimal Epsilon</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> vs. Number of Nim Training Episodes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -506,88 +456,38 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241409024"/>
-        <c:axId val="76555392"/>
+        <c:axId val="201809920"/>
+        <c:axId val="201811840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241409024"/>
+        <c:axId val="201809920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Training</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Games (10</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
-                  <a:t>3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76555392"/>
+        <c:crossAx val="201811840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76555392"/>
+        <c:axId val="201811840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Optimal Epsilon</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241409024"/>
+        <c:crossAx val="201809920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
